--- a/public/Mangalore Refinery _ Petrochemicals Ltd._Governance.xlsx
+++ b/public/Mangalore Refinery _ Petrochemicals Ltd._Governance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithesh\Downloads\Mangalore Refinery &amp; Petrochemicals Ltd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithesh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Company Info" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Matrix-KMP'!$A$1:$AZ$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Standalone '!$A$1:$AL$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6077" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6151" uniqueCount="965">
   <si>
     <t>Key Issues</t>
   </si>
@@ -3029,6 +3029,9 @@
   <si>
     <t>2.12+2.61+0.45</t>
   </si>
+  <si>
+    <t>Sumangala</t>
+  </si>
 </sst>
 </file>
 
@@ -3039,9 +3042,16 @@
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3248,7 +3258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3512,89 +3522,89 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3602,83 +3612,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3687,34 +3697,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3724,37 +3734,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3765,7 +3775,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3777,7 +3787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3789,52 +3799,53 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
@@ -4853,12 +4864,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -4916,7 +4927,9 @@
       <c r="G2" s="120" t="s">
         <v>752</v>
       </c>
-      <c r="H2" s="120"/>
+      <c r="H2" s="121" t="s">
+        <v>964</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7467,8 +7480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL211"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -7483,9 +7496,9 @@
     <col min="8" max="8" width="10.75" style="63"/>
     <col min="9" max="9" width="16.75" style="63" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="63" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="63" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="63" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="63" customWidth="1"/>
+    <col min="11" max="11" width="24.625" style="63" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="63" customWidth="1"/>
+    <col min="13" max="13" width="20.625" style="63" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="63" customWidth="1"/>
     <col min="15" max="15" width="19.375" style="63" customWidth="1"/>
     <col min="16" max="16" width="6.125" style="63" customWidth="1"/>
@@ -9575,7 +9588,7 @@
       <c r="H24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="109">
+      <c r="I24" s="108">
         <v>1752600000</v>
       </c>
       <c r="J24" s="93">
@@ -16740,7 +16753,7 @@
       <c r="H129" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I129" s="109">
+      <c r="I129" s="108">
         <v>1752590000</v>
       </c>
       <c r="J129" s="93">
@@ -22163,7 +22176,7 @@
   <mergeCells count="1">
     <mergeCell ref="AJ2:AL2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="AD5:AD15">
     <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="T2">
       <formula>NOT(ISERROR(SEARCH("T2",AD5)))</formula>
@@ -22214,8 +22227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP62"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -22238,7 +22251,11 @@
     <col min="18" max="19" width="17.25" customWidth="1"/>
     <col min="20" max="20" width="18.625" customWidth="1"/>
     <col min="21" max="21" width="15.5" customWidth="1"/>
-    <col min="23" max="39" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="10.75" customWidth="1"/>
+    <col min="24" max="24" width="11.875" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="12.25" customWidth="1"/>
+    <col min="27" max="39" width="10.75" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="11" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="20.25" customWidth="1"/>
     <col min="47" max="47" width="18.5" customWidth="1"/>
@@ -22323,16 +22340,16 @@
       <c r="V1" s="33" t="s">
         <v>779</v>
       </c>
-      <c r="W1" s="108" t="s">
+      <c r="W1" s="109" t="s">
         <v>786</v>
       </c>
-      <c r="X1" s="108" t="s">
+      <c r="X1" s="109" t="s">
         <v>785</v>
       </c>
-      <c r="Y1" s="108" t="s">
+      <c r="Y1" s="109" t="s">
         <v>791</v>
       </c>
-      <c r="Z1" s="108" t="s">
+      <c r="Z1" s="109" t="s">
         <v>943</v>
       </c>
       <c r="AA1" s="33" t="s">
@@ -22511,6 +22528,18 @@
         <v>757</v>
       </c>
       <c r="V2" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>757</v>
       </c>
       <c r="AN2" s="20" t="s">
@@ -22627,6 +22656,18 @@
         <v>758</v>
       </c>
       <c r="V3" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="Z3" s="20" t="s">
         <v>758</v>
       </c>
       <c r="AN3" s="20" t="s">
@@ -22734,6 +22775,12 @@
       <c r="V4" s="20">
         <v>210000</v>
       </c>
+      <c r="W4" s="20">
+        <v>440000</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>470000</v>
+      </c>
       <c r="AN4" s="20" t="s">
         <v>793</v>
       </c>
@@ -23176,6 +23223,12 @@
       <c r="V9" s="20">
         <v>210000</v>
       </c>
+      <c r="W9" s="20">
+        <v>440000</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>470000</v>
+      </c>
       <c r="AN9" s="20" t="s">
         <v>793</v>
       </c>
@@ -23307,6 +23360,18 @@
       <c r="V10" s="20" t="s">
         <v>756</v>
       </c>
+      <c r="W10" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AQ10" s="93"/>
       <c r="AS10" s="99" t="s">
         <v>758</v>
@@ -23422,6 +23487,18 @@
       <c r="V11" s="20" t="s">
         <v>679</v>
       </c>
+      <c r="W11" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="X11" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>679</v>
+      </c>
       <c r="AN11" s="20" t="s">
         <v>793</v>
       </c>
@@ -23553,6 +23630,18 @@
       <c r="V12" s="20" t="s">
         <v>757</v>
       </c>
+      <c r="W12" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN12" s="20" t="s">
         <v>793</v>
       </c>
@@ -23684,6 +23773,18 @@
       <c r="V13" s="20" t="s">
         <v>757</v>
       </c>
+      <c r="W13" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN13" s="20" t="s">
         <v>793</v>
       </c>
@@ -23815,6 +23916,18 @@
       <c r="V14" s="20" t="s">
         <v>756</v>
       </c>
+      <c r="W14" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X14" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AQ14" s="93"/>
       <c r="AS14" s="99" t="s">
         <v>758</v>
@@ -23930,6 +24043,18 @@
       <c r="V15" s="20" t="s">
         <v>758</v>
       </c>
+      <c r="W15" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN15" s="20" t="s">
         <v>793</v>
       </c>
@@ -24051,6 +24176,18 @@
       </c>
       <c r="V16" s="20" t="s">
         <v>758</v>
+      </c>
+      <c r="W16" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X16" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y16" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z16" s="20" t="s">
+        <v>756</v>
       </c>
       <c r="AN16" s="20" t="s">
         <v>793</v>
@@ -24158,10 +24295,18 @@
       <c r="V17" s="93">
         <v>43658</v>
       </c>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
+      <c r="W17" s="93">
+        <v>42766</v>
+      </c>
+      <c r="X17" s="93">
+        <v>43063</v>
+      </c>
+      <c r="Y17" s="93">
+        <v>43472</v>
+      </c>
+      <c r="Z17" s="93">
+        <v>43063</v>
+      </c>
       <c r="AA17" s="22"/>
       <c r="AB17" s="22"/>
       <c r="AC17" s="22"/>
@@ -24270,10 +24415,18 @@
       <c r="T18" s="93"/>
       <c r="U18" s="93"/>
       <c r="V18" s="93"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
+      <c r="W18" s="93">
+        <v>43861</v>
+      </c>
+      <c r="X18" s="93">
+        <v>43838</v>
+      </c>
+      <c r="Y18" s="93">
+        <v>43755</v>
+      </c>
+      <c r="Z18" s="93">
+        <v>43755</v>
+      </c>
       <c r="AA18" s="22"/>
       <c r="AB18" s="22"/>
       <c r="AC18" s="22"/>
@@ -24287,20 +24440,36 @@
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
       <c r="AM18" s="22"/>
-      <c r="AQ18" s="93"/>
-      <c r="AS18" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="AT18" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="AU18" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="AV18" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="AW18" s="29"/>
+      <c r="AN18" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="AO18" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="AP18" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="AQ18" s="93">
+        <v>44088</v>
+      </c>
+      <c r="AR18" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="AS18" s="99" t="s">
+        <v>757</v>
+      </c>
+      <c r="AT18" s="99" t="s">
+        <v>757</v>
+      </c>
+      <c r="AU18" s="99" t="s">
+        <v>758</v>
+      </c>
+      <c r="AV18" s="99" t="s">
+        <v>758</v>
+      </c>
+      <c r="AW18" s="29" t="s">
+        <v>798</v>
+      </c>
       <c r="AX18" s="86"/>
       <c r="AY18" s="83" t="s">
         <v>757</v>
@@ -24604,6 +24773,18 @@
       <c r="V21" s="20" t="s">
         <v>757</v>
       </c>
+      <c r="W21" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X21" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z21" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN21" s="20" t="s">
         <v>793</v>
       </c>
@@ -24719,6 +24900,18 @@
       </c>
       <c r="V22" s="20" t="s">
         <v>757</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>756</v>
       </c>
       <c r="AN22" s="20" t="s">
         <v>793</v>
@@ -24831,6 +25024,18 @@
       <c r="V23" s="20" t="s">
         <v>758</v>
       </c>
+      <c r="W23" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN23" s="20" t="s">
         <v>793</v>
       </c>
@@ -24942,6 +25147,18 @@
       <c r="V24" s="20" t="s">
         <v>757</v>
       </c>
+      <c r="W24" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X24" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z24" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN24" s="20" t="s">
         <v>793</v>
       </c>
@@ -25331,6 +25548,18 @@
       <c r="V28" s="20" t="s">
         <v>758</v>
       </c>
+      <c r="W28" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X28" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y28" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z28" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN28" s="20" t="s">
         <v>793</v>
       </c>
@@ -25442,6 +25671,18 @@
       <c r="V29" s="20" t="s">
         <v>758</v>
       </c>
+      <c r="W29" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X29" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y29" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z29" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AN29" s="20" t="s">
         <v>793</v>
       </c>
@@ -25553,6 +25794,18 @@
       <c r="V30" s="20" t="s">
         <v>756</v>
       </c>
+      <c r="W30" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X30" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z30" s="20" t="s">
+        <v>756</v>
+      </c>
       <c r="AQ30" s="93"/>
       <c r="AS30" s="28" t="s">
         <v>758</v>
@@ -25647,6 +25900,18 @@
       </c>
       <c r="V31" s="20" t="s">
         <v>758</v>
+      </c>
+      <c r="W31" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="X31" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z31" s="20" t="s">
+        <v>756</v>
       </c>
       <c r="AN31" s="20" t="s">
         <v>793</v>
@@ -28507,7 +28772,7 @@
   <mergeCells count="1">
     <mergeCell ref="BN1:BP1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D3">
     <cfRule type="duplicateValues" dxfId="66" priority="50"/>
   </conditionalFormatting>
@@ -28642,10 +28907,10 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:AM9 J50:AM51 J19:AM20 J35:AM40 J25:AM27 J56:AM58">
       <formula1>-99999999</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17:AM18 V48:AM49">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V48:AM49 AA17:AM18">
       <formula1>3654</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS33:AV62 AS2:AV31 AY2:AY31 AY33:AY62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS33:AV62 AY33:AY62 AY2:AY31 AS2:AV31">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ33:AZ62 AZ2:AZ31">
@@ -28654,7 +28919,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC33:BC62 BC2:BC31">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:AM3 J33:AM34 J10:AM10 J12:AM16 J21:AM24 J28:AM31 J43:AM47 J41:AM41 J52:AM55 J59:AM62">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:AM3 J33:AM34 J10:AM10 J59:AM62 J12:AM16 J21:AM24 J43:AM47 J41:AM41 J52:AM55 J28:AM31">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28666,8 +28931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AT10" sqref="AT10"/>
+    <sheetView topLeftCell="AE6" zoomScale="113" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -31171,7 +31436,7 @@
   <mergeCells count="1">
     <mergeCell ref="BC1:BE1"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D2:D11">
     <cfRule type="duplicateValues" dxfId="15" priority="417"/>
   </conditionalFormatting>
